--- a/Cursos/2021/AI2021_Calificaciones.xlsx
+++ b/Cursos/2021/AI2021_Calificaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/guillermo_rubiogomez_uclm_es/Documents/UCLM_DOC/09_Docencia/01_AutomatizacionIndustrial/Repo_AI/Cursos/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA70C0D-1061-4141-ADEA-68F6AB0FDFE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA70C0D-1061-4141-ADEA-68F6AB0FDFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calificaciones" sheetId="1" r:id="rId1"/>
@@ -589,6 +589,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,10 +602,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1076,7 +1076,7 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1125,7 +1125,7 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1172,7 +1172,7 @@
         <f t="shared" ref="A7:A50" si="3">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1219,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1266,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1315,7 +1315,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1362,7 +1362,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
@@ -1409,7 +1409,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1456,7 +1456,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1505,7 +1505,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
@@ -1552,7 +1552,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
@@ -1599,7 +1599,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
@@ -1646,7 +1646,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1695,7 +1695,7 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
@@ -1742,7 +1742,7 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="13" t="s">
         <v>30</v>
       </c>
@@ -1789,7 +1789,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="13" t="s">
         <v>32</v>
       </c>
@@ -1836,7 +1836,7 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -1885,7 +1885,7 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
@@ -1932,7 +1932,7 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
@@ -1979,7 +1979,7 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
         <v>39</v>
       </c>
@@ -2026,7 +2026,7 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -2075,7 +2075,7 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="13" t="s">
         <v>43</v>
       </c>
@@ -2122,7 +2122,7 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="13" t="s">
         <v>45</v>
       </c>
@@ -2169,7 +2169,7 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="13" t="s">
         <v>47</v>
       </c>
@@ -2216,7 +2216,7 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -2265,7 +2265,7 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
         <v>51</v>
       </c>
@@ -2312,7 +2312,7 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
@@ -2359,7 +2359,7 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="9" t="s">
         <v>34</v>
       </c>
@@ -2406,7 +2406,7 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -2455,7 +2455,7 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="13" t="s">
         <v>60</v>
       </c>
@@ -2502,7 +2502,7 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="13" t="s">
         <v>26</v>
       </c>
@@ -2549,7 +2549,7 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="13" t="s">
         <v>53</v>
       </c>
@@ -2596,7 +2596,7 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -2645,7 +2645,7 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="9" t="s">
         <v>66</v>
       </c>
@@ -2692,7 +2692,7 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="9" t="s">
         <v>68</v>
       </c>
@@ -2739,7 +2739,7 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B40" s="18"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="9" t="s">
         <v>39</v>
       </c>
@@ -2786,7 +2786,7 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="13" t="s">
@@ -2835,7 +2835,7 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="13" t="s">
         <v>34</v>
       </c>
@@ -2882,7 +2882,7 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="13" t="s">
         <v>24</v>
       </c>
@@ -2929,7 +2929,7 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="13" t="s">
         <v>74</v>
       </c>
@@ -2976,7 +2976,7 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -3025,7 +3025,7 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="9" t="s">
         <v>39</v>
       </c>
@@ -3072,7 +3072,7 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="9" t="s">
         <v>76</v>
       </c>
@@ -3119,7 +3119,7 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -3168,7 +3168,7 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="13" t="s">
         <v>82</v>
       </c>
@@ -3215,7 +3215,7 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="13" t="s">
         <v>56</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -3394,7 +3394,7 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
@@ -3426,7 +3426,7 @@
         <f t="shared" ref="A7:A50" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
@@ -3458,7 +3458,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3490,7 +3490,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3524,7 +3524,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -3556,7 +3556,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
@@ -3588,7 +3588,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
@@ -3620,7 +3620,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -3654,7 +3654,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
@@ -3686,7 +3686,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
@@ -3718,7 +3718,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
@@ -3750,7 +3750,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -3784,7 +3784,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
@@ -3816,7 +3816,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="13" t="s">
         <v>30</v>
       </c>
@@ -3848,7 +3848,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="13" t="s">
         <v>32</v>
       </c>
@@ -3880,7 +3880,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -3914,7 +3914,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
@@ -3946,7 +3946,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
@@ -3978,7 +3978,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
         <v>39</v>
       </c>
@@ -4010,7 +4010,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -4044,7 +4044,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="13" t="s">
         <v>43</v>
       </c>
@@ -4076,7 +4076,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="13" t="s">
         <v>45</v>
       </c>
@@ -4108,7 +4108,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="13" t="s">
         <v>47</v>
       </c>
@@ -4140,7 +4140,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -4174,7 +4174,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
         <v>51</v>
       </c>
@@ -4206,7 +4206,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
@@ -4238,7 +4238,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="9" t="s">
         <v>34</v>
       </c>
@@ -4270,7 +4270,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -4304,7 +4304,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="13" t="s">
         <v>60</v>
       </c>
@@ -4336,7 +4336,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="13" t="s">
         <v>26</v>
       </c>
@@ -4368,7 +4368,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="13" t="s">
         <v>53</v>
       </c>
@@ -4400,7 +4400,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -4434,7 +4434,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="9" t="s">
         <v>66</v>
       </c>
@@ -4466,7 +4466,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="9" t="s">
         <v>68</v>
       </c>
@@ -4498,7 +4498,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B40" s="18"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="9" t="s">
         <v>39</v>
       </c>
@@ -4530,7 +4530,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="13" t="s">
@@ -4564,7 +4564,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="13" t="s">
         <v>34</v>
       </c>
@@ -4596,7 +4596,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="13" t="s">
         <v>24</v>
       </c>
@@ -4628,7 +4628,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="13" t="s">
         <v>74</v>
       </c>
@@ -4660,7 +4660,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -4694,7 +4694,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="9" t="s">
         <v>39</v>
       </c>
@@ -4726,7 +4726,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="9" t="s">
         <v>76</v>
       </c>
@@ -4758,7 +4758,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -4792,7 +4792,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="13" t="s">
         <v>82</v>
       </c>
@@ -4824,7 +4824,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="13" t="s">
         <v>56</v>
       </c>
@@ -4892,10 +4892,10 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" s="5"/>
@@ -4948,7 +4948,7 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -4979,7 +4979,7 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
@@ -5008,7 +5008,7 @@
         <f t="shared" ref="A7:A50" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
@@ -5037,7 +5037,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -5066,7 +5066,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -5097,7 +5097,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -5126,7 +5126,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
@@ -5155,7 +5155,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
@@ -5184,7 +5184,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -5215,7 +5215,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
@@ -5244,7 +5244,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
@@ -5273,7 +5273,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
@@ -5302,7 +5302,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -5333,7 +5333,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
@@ -5362,7 +5362,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="13" t="s">
         <v>30</v>
       </c>
@@ -5391,7 +5391,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="13" t="s">
         <v>32</v>
       </c>
@@ -5420,7 +5420,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -5451,7 +5451,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
@@ -5480,7 +5480,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
@@ -5509,7 +5509,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
         <v>39</v>
       </c>
@@ -5538,7 +5538,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -5569,7 +5569,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="13" t="s">
         <v>43</v>
       </c>
@@ -5598,7 +5598,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="13" t="s">
         <v>45</v>
       </c>
@@ -5627,7 +5627,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="13" t="s">
         <v>47</v>
       </c>
@@ -5656,7 +5656,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -5687,7 +5687,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
         <v>51</v>
       </c>
@@ -5716,7 +5716,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
@@ -5745,7 +5745,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="9" t="s">
         <v>34</v>
       </c>
@@ -5774,7 +5774,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -5805,7 +5805,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="13" t="s">
         <v>60</v>
       </c>
@@ -5834,7 +5834,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="13" t="s">
         <v>26</v>
       </c>
@@ -5863,7 +5863,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="13" t="s">
         <v>53</v>
       </c>
@@ -5892,7 +5892,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -5923,7 +5923,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="9" t="s">
         <v>66</v>
       </c>
@@ -5952,7 +5952,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="9" t="s">
         <v>68</v>
       </c>
@@ -5981,7 +5981,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B40" s="18"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="9" t="s">
         <v>39</v>
       </c>
@@ -6010,7 +6010,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="13" t="s">
@@ -6041,7 +6041,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="13" t="s">
         <v>34</v>
       </c>
@@ -6070,7 +6070,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="13" t="s">
         <v>24</v>
       </c>
@@ -6099,7 +6099,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="13" t="s">
         <v>74</v>
       </c>
@@ -6128,7 +6128,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -6159,7 +6159,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="9" t="s">
         <v>39</v>
       </c>
@@ -6188,7 +6188,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="9" t="s">
         <v>76</v>
       </c>
@@ -6217,7 +6217,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -6248,7 +6248,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="13" t="s">
         <v>82</v>
       </c>
@@ -6277,7 +6277,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="13" t="s">
         <v>56</v>
       </c>
@@ -6370,7 +6370,7 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -6393,7 +6393,7 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
@@ -6414,7 +6414,7 @@
         <f t="shared" ref="A7:A50" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
@@ -6435,7 +6435,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -6456,7 +6456,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -6479,7 +6479,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
@@ -6500,7 +6500,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
@@ -6521,7 +6521,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
@@ -6542,7 +6542,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -6565,7 +6565,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
@@ -6586,7 +6586,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
@@ -6607,7 +6607,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
@@ -6628,7 +6628,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -6651,7 +6651,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
@@ -6672,7 +6672,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="13" t="s">
         <v>30</v>
       </c>
@@ -6693,7 +6693,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="13" t="s">
         <v>32</v>
       </c>
@@ -6714,7 +6714,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -6737,7 +6737,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
@@ -6758,7 +6758,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
@@ -6779,7 +6779,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
         <v>39</v>
       </c>
@@ -6800,7 +6800,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -6823,7 +6823,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="13" t="s">
         <v>43</v>
       </c>
@@ -6844,7 +6844,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="13" t="s">
         <v>45</v>
       </c>
@@ -6865,7 +6865,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="13" t="s">
         <v>47</v>
       </c>
@@ -6886,7 +6886,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -6909,7 +6909,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
         <v>51</v>
       </c>
@@ -6930,7 +6930,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
@@ -6951,7 +6951,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="9" t="s">
         <v>34</v>
       </c>
@@ -6972,7 +6972,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -6995,7 +6995,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="13" t="s">
         <v>60</v>
       </c>
@@ -7016,7 +7016,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="13" t="s">
         <v>26</v>
       </c>
@@ -7037,7 +7037,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="13" t="s">
         <v>53</v>
       </c>
@@ -7058,7 +7058,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -7081,7 +7081,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="9" t="s">
         <v>66</v>
       </c>
@@ -7102,7 +7102,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="9" t="s">
         <v>68</v>
       </c>
@@ -7123,7 +7123,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B40" s="18"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="9" t="s">
         <v>39</v>
       </c>
@@ -7144,7 +7144,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="13" t="s">
@@ -7167,7 +7167,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="13" t="s">
         <v>34</v>
       </c>
@@ -7188,7 +7188,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="13" t="s">
         <v>24</v>
       </c>
@@ -7209,7 +7209,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="13" t="s">
         <v>74</v>
       </c>
@@ -7230,7 +7230,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -7253,7 +7253,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="9" t="s">
         <v>39</v>
       </c>
@@ -7274,7 +7274,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="9" t="s">
         <v>76</v>
       </c>
@@ -7295,7 +7295,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -7318,7 +7318,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="13" t="s">
         <v>82</v>
       </c>
@@ -7339,7 +7339,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="13" t="s">
         <v>56</v>
       </c>
@@ -7379,8 +7379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E81954-49D0-4912-B3AC-981DFBDC2EEF}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -7397,7 +7397,7 @@
       <c r="B1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -7415,7 +7415,7 @@
       <c r="H1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -7442,20 +7442,20 @@
         <v>0</v>
       </c>
       <c r="H2" s="10">
-        <f>E2*0.7+F2*0.2+G2*0.1</f>
+        <f t="shared" ref="H2:H47" si="0">E2*0.7+F2*0.2+G2*0.1</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>H2*4/10</f>
+        <f t="shared" ref="I2:I47" si="1">H2*4/10</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A47" si="2">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
@@ -7472,20 +7472,20 @@
         <v>10</v>
       </c>
       <c r="H3" s="10">
-        <f>E3*0.7+F3*0.2+G3*0.1</f>
+        <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
       <c r="I3">
-        <f>H3*4/10</f>
+        <f t="shared" si="1"/>
         <v>1.52</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="9">
-        <f>A3+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
@@ -7502,20 +7502,20 @@
         <v>10</v>
       </c>
       <c r="H4" s="10">
-        <f>E4*0.7+F4*0.2+G4*0.1</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="I4">
-        <f>H4*4/10</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="9">
-        <f>A4+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
@@ -7532,20 +7532,20 @@
         <v>10</v>
       </c>
       <c r="H5" s="10">
-        <f>E5*0.7+F5*0.2+G5*0.1</f>
+        <f t="shared" si="0"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="I5">
-        <f>H5*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.72</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13">
-        <f>A5+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -7564,20 +7564,20 @@
         <v>10</v>
       </c>
       <c r="H6" s="10">
-        <f>E6*0.7+F6*0.2+G6*0.1</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="I6">
-        <f>H6*4/10</f>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13">
-        <f>A6+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
@@ -7594,20 +7594,20 @@
         <v>10</v>
       </c>
       <c r="H7" s="10">
-        <f>E7*0.7+F7*0.2+G7*0.1</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
       <c r="I7">
-        <f>H7*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.08</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13">
-        <f>A7+1</f>
-        <v>7</v>
-      </c>
-      <c r="B8" s="17"/>
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
@@ -7624,20 +7624,20 @@
         <v>7</v>
       </c>
       <c r="H8" s="10">
-        <f>E8*0.7+F8*0.2+G8*0.1</f>
+        <f t="shared" si="0"/>
         <v>4.8999999999999995</v>
       </c>
       <c r="I8">
-        <f>H8*4/10</f>
+        <f t="shared" si="1"/>
         <v>1.9599999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13">
-        <f>A8+1</f>
-        <v>8</v>
-      </c>
-      <c r="B9" s="17"/>
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="19"/>
       <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
@@ -7654,20 +7654,20 @@
         <v>0</v>
       </c>
       <c r="H9" s="10">
-        <f>E9*0.7+F9*0.2+G9*0.1</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="I9">
-        <f>H9*4/10</f>
+        <f t="shared" si="1"/>
         <v>0.55999999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="9">
-        <f>A9+1</f>
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -7686,20 +7686,20 @@
         <v>10</v>
       </c>
       <c r="H10" s="10">
-        <f>E10*0.7+F10*0.2+G10*0.1</f>
+        <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
       <c r="I10">
-        <f>H10*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="9">
-        <f>A10+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
@@ -7716,20 +7716,20 @@
         <v>10</v>
       </c>
       <c r="H11" s="10">
-        <f>E11*0.7+F11*0.2+G11*0.1</f>
+        <f t="shared" si="0"/>
         <v>9.6499999999999986</v>
       </c>
       <c r="I11">
-        <f>H11*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.8599999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="9">
-        <f>A11+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
@@ -7746,20 +7746,20 @@
         <v>0</v>
       </c>
       <c r="H12" s="10">
-        <f>E12*0.7+F12*0.2+G12*0.1</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="I12">
-        <f>H12*4/10</f>
+        <f t="shared" si="1"/>
         <v>0.88000000000000012</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="9">
-        <f>A12+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="9" t="s">
         <v>24</v>
       </c>
@@ -7776,20 +7776,20 @@
         <v>10</v>
       </c>
       <c r="H13" s="10">
-        <f>E13*0.7+F13*0.2+G13*0.1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I13">
-        <f>H13*4/10</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="13">
-        <f>A13+1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -7808,20 +7808,20 @@
         <v>9</v>
       </c>
       <c r="H14" s="10">
-        <f>E14*0.7+F14*0.2+G14*0.1</f>
+        <f t="shared" si="0"/>
         <v>7.85</v>
       </c>
       <c r="I14">
-        <f>H14*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.1399999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="13">
-        <f>A14+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="13" t="s">
         <v>28</v>
       </c>
@@ -7838,20 +7838,20 @@
         <v>10</v>
       </c>
       <c r="H15" s="10">
-        <f>E15*0.7+F15*0.2+G15*0.1</f>
+        <f t="shared" si="0"/>
         <v>6.8999999999999995</v>
       </c>
       <c r="I15">
-        <f>H15*4/10</f>
+        <f t="shared" si="1"/>
         <v>2.76</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="13">
-        <f>A15+1</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
@@ -7868,20 +7868,20 @@
         <v>10</v>
       </c>
       <c r="H16" s="10">
-        <f>E16*0.7+F16*0.2+G16*0.1</f>
+        <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
       <c r="I16">
-        <f>H16*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.16</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="13">
-        <f>A16+1</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="13" t="s">
         <v>32</v>
       </c>
@@ -7898,20 +7898,20 @@
         <v>0</v>
       </c>
       <c r="H17" s="10">
-        <f>E17*0.7+F17*0.2+G17*0.1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>H17*4/10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="9">
-        <f>A17+1</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -7930,20 +7930,20 @@
         <v>6</v>
       </c>
       <c r="H18" s="10">
-        <f>E18*0.7+F18*0.2+G18*0.1</f>
+        <f t="shared" si="0"/>
         <v>8.9</v>
       </c>
       <c r="I18">
-        <f>H18*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.56</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="9">
-        <f>A18+1</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="9" t="s">
         <v>18</v>
       </c>
@@ -7960,20 +7960,20 @@
         <v>7</v>
       </c>
       <c r="H19" s="10">
-        <f>E19*0.7+F19*0.2+G19*0.1</f>
+        <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
       <c r="I19">
-        <f>H19*4/10</f>
+        <f t="shared" si="1"/>
         <v>1.8800000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9">
-        <f>A19+1</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
@@ -7990,20 +7990,20 @@
         <v>10</v>
       </c>
       <c r="H20" s="10">
-        <f>E20*0.7+F20*0.2+G20*0.1</f>
+        <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
       <c r="I20">
-        <f>H20*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.96</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="9">
-        <f>A20+1</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="9" t="s">
         <v>39</v>
       </c>
@@ -8020,20 +8020,20 @@
         <v>10</v>
       </c>
       <c r="H21" s="10">
-        <f>E21*0.7+F21*0.2+G21*0.1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I21">
-        <f>H21*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="13">
-        <f>A21+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -8052,20 +8052,20 @@
         <v>9</v>
       </c>
       <c r="H22" s="10">
-        <f>E22*0.7+F22*0.2+G22*0.1</f>
+        <f t="shared" si="0"/>
         <v>9.1</v>
       </c>
       <c r="I22">
-        <f>H22*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.6399999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="13">
-        <f>A22+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="13" t="s">
         <v>43</v>
       </c>
@@ -8082,20 +8082,20 @@
         <v>10</v>
       </c>
       <c r="H23" s="10">
-        <f>E23*0.7+F23*0.2+G23*0.1</f>
+        <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
       <c r="I23">
-        <f>H23*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.84</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="13">
-        <f>A23+1</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="13" t="s">
         <v>45</v>
       </c>
@@ -8112,20 +8112,20 @@
         <v>10</v>
       </c>
       <c r="H24" s="10">
-        <f>E24*0.7+F24*0.2+G24*0.1</f>
+        <f t="shared" si="0"/>
         <v>7.85</v>
       </c>
       <c r="I24">
-        <f>H24*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.1399999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="13">
-        <f>A24+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="13" t="s">
         <v>47</v>
       </c>
@@ -8142,20 +8142,20 @@
         <v>7</v>
       </c>
       <c r="H25" s="10">
-        <f>E25*0.7+F25*0.2+G25*0.1</f>
+        <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
       <c r="I25">
-        <f>H25*4/10</f>
+        <f t="shared" si="1"/>
         <v>1.6800000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="9">
-        <f>A25+1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -8174,20 +8174,20 @@
         <v>10</v>
       </c>
       <c r="H26" s="10">
-        <f>E26*0.7+F26*0.2+G26*0.1</f>
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="I26">
-        <f>H26*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="9">
-        <f>A26+1</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="9" t="s">
         <v>51</v>
       </c>
@@ -8204,20 +8204,20 @@
         <v>10</v>
       </c>
       <c r="H27" s="10">
-        <f>E27*0.7+F27*0.2+G27*0.1</f>
+        <f t="shared" si="0"/>
         <v>5.55</v>
       </c>
       <c r="I27">
-        <f>H27*4/10</f>
+        <f t="shared" si="1"/>
         <v>2.2199999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="9">
-        <f>A27+1</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="9" t="s">
         <v>53</v>
       </c>
@@ -8234,20 +8234,20 @@
         <v>10</v>
       </c>
       <c r="H28" s="10">
-        <f>E28*0.7+F28*0.2+G28*0.1</f>
+        <f t="shared" si="0"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="I28">
-        <f>H28*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.72</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="9">
-        <f>A28+1</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="9" t="s">
         <v>34</v>
       </c>
@@ -8264,20 +8264,20 @@
         <v>5</v>
       </c>
       <c r="H29" s="10">
-        <f>E29*0.7+F29*0.2+G29*0.1</f>
+        <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
       <c r="I29">
-        <f>H29*4/10</f>
+        <f t="shared" si="1"/>
         <v>1.6800000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="13">
-        <f>A29+1</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -8296,20 +8296,20 @@
         <v>5</v>
       </c>
       <c r="H30" s="10">
-        <f>E30*0.7+F30*0.2+G30*0.1</f>
+        <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="I30">
-        <f>H30*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.5200000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="13">
-        <f>A30+1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="13" t="s">
         <v>60</v>
       </c>
@@ -8326,20 +8326,20 @@
         <v>10</v>
       </c>
       <c r="H31" s="10">
-        <f>E31*0.7+F31*0.2+G31*0.1</f>
+        <f t="shared" si="0"/>
         <v>9.1</v>
       </c>
       <c r="I31">
-        <f>H31*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.6399999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="13">
-        <f>A31+1</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B32" s="17"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="13" t="s">
         <v>26</v>
       </c>
@@ -8356,20 +8356,20 @@
         <v>0</v>
       </c>
       <c r="H32" s="10">
-        <f>E32*0.7+F32*0.2+G32*0.1</f>
+        <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="I32">
-        <f>H32*4/10</f>
+        <f t="shared" si="1"/>
         <v>1.6799999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="13">
-        <f>A32+1</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="13" t="s">
         <v>53</v>
       </c>
@@ -8386,20 +8386,20 @@
         <v>5</v>
       </c>
       <c r="H33" s="10">
-        <f>E33*0.7+F33*0.2+G33*0.1</f>
+        <f t="shared" si="0"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="I33">
-        <f>H33*4/10</f>
+        <f t="shared" si="1"/>
         <v>0.83999999999999986</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="9">
-        <f>A33+1</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -8418,20 +8418,20 @@
         <v>0</v>
       </c>
       <c r="H34" s="10">
-        <f>E34*0.7+F34*0.2+G34*0.1</f>
+        <f t="shared" si="0"/>
         <v>7.05</v>
       </c>
       <c r="I34">
-        <f>H34*4/10</f>
+        <f t="shared" si="1"/>
         <v>2.82</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="9">
-        <f>A34+1</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="9" t="s">
         <v>66</v>
       </c>
@@ -8448,20 +8448,20 @@
         <v>10</v>
       </c>
       <c r="H35" s="10">
-        <f>E35*0.7+F35*0.2+G35*0.1</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="I35">
-        <f>H35*4/10</f>
+        <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="9">
-        <f>A35+1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="9" t="s">
         <v>68</v>
       </c>
@@ -8478,20 +8478,20 @@
         <v>10</v>
       </c>
       <c r="H36" s="10">
-        <f>E36*0.7+F36*0.2+G36*0.1</f>
+        <f t="shared" si="0"/>
         <v>6.9499999999999993</v>
       </c>
       <c r="I36">
-        <f>H36*4/10</f>
+        <f t="shared" si="1"/>
         <v>2.78</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="9">
-        <f>A36+1</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="9" t="s">
         <v>39</v>
       </c>
@@ -8508,20 +8508,20 @@
         <v>7</v>
       </c>
       <c r="H37" s="10">
-        <f>E37*0.7+F37*0.2+G37*0.1</f>
+        <f t="shared" si="0"/>
         <v>6.3</v>
       </c>
       <c r="I37">
-        <f>H37*4/10</f>
+        <f t="shared" si="1"/>
         <v>2.52</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="13">
-        <f>A37+1</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -8540,20 +8540,20 @@
         <v>10</v>
       </c>
       <c r="H38" s="10">
-        <f>E38*0.7+F38*0.2+G38*0.1</f>
+        <f t="shared" si="0"/>
         <v>9.6499999999999986</v>
       </c>
       <c r="I38">
-        <f>H38*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.8599999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="13">
-        <f>A38+1</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B39" s="17"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="13" t="s">
         <v>34</v>
       </c>
@@ -8570,20 +8570,20 @@
         <v>10</v>
       </c>
       <c r="H39" s="10">
-        <f>E39*0.7+F39*0.2+G39*0.1</f>
+        <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
       <c r="I39">
-        <f>H39*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.96</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="13">
-        <f>A39+1</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B40" s="17"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="13" t="s">
         <v>24</v>
       </c>
@@ -8600,20 +8600,20 @@
         <v>0</v>
       </c>
       <c r="H40" s="10">
-        <f>E40*0.7+F40*0.2+G40*0.1</f>
+        <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="I40">
-        <f>H40*4/10</f>
+        <f t="shared" si="1"/>
         <v>2.88</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="13">
-        <f>A40+1</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B41" s="17"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="13" t="s">
         <v>74</v>
       </c>
@@ -8630,20 +8630,20 @@
         <v>10</v>
       </c>
       <c r="H41" s="10">
-        <f>E41*0.7+F41*0.2+G41*0.1</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="I41">
-        <f>H41*4/10</f>
+        <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="9">
-        <f>A41+1</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -8662,20 +8662,20 @@
         <v>10</v>
       </c>
       <c r="H42" s="10">
-        <f>E42*0.7+F42*0.2+G42*0.1</f>
+        <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
       <c r="I42">
-        <f>H42*4/10</f>
+        <f t="shared" si="1"/>
         <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="9">
-        <f>A42+1</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B43" s="18"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="9" t="s">
         <v>39</v>
       </c>
@@ -8692,20 +8692,20 @@
         <v>10</v>
       </c>
       <c r="H43" s="10">
-        <f>E43*0.7+F43*0.2+G43*0.1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I43">
-        <f>H43*4/10</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="9">
-        <f>A43+1</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="9" t="s">
         <v>76</v>
       </c>
@@ -8722,20 +8722,20 @@
         <v>10</v>
       </c>
       <c r="H44" s="10">
-        <f>E44*0.7+F44*0.2+G44*0.1</f>
+        <f t="shared" si="0"/>
         <v>8.9</v>
       </c>
       <c r="I44">
-        <f>H44*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.56</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="13">
-        <f>A44+1</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -8754,20 +8754,20 @@
         <v>10</v>
       </c>
       <c r="H45" s="10">
-        <f>E45*0.7+F45*0.2+G45*0.1</f>
+        <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="I45">
-        <f>H45*4/10</f>
+        <f t="shared" si="1"/>
         <v>3.3200000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="13">
-        <f>A45+1</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B46" s="17"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="13" t="s">
         <v>82</v>
       </c>
@@ -8784,20 +8784,20 @@
         <v>10</v>
       </c>
       <c r="H46" s="10">
-        <f>E46*0.7+F46*0.2+G46*0.1</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="I46">
-        <f>H46*4/10</f>
+        <f t="shared" si="1"/>
         <v>1.9600000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="13">
-        <f>A46+1</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B47" s="17"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="13" t="s">
         <v>56</v>
       </c>
@@ -8814,28 +8814,28 @@
         <v>10</v>
       </c>
       <c r="H47" s="10">
-        <f>E47*0.7+F47*0.2+G47*0.1</f>
+        <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
       <c r="I47">
-        <f>H47*4/10</f>
+        <f t="shared" si="1"/>
         <v>2.6399999999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Cursos/2021/AI2021_Calificaciones.xlsx
+++ b/Cursos/2021/AI2021_Calificaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/guillermo_rubiogomez_uclm_es/Documents/UCLM_DOC/09_Docencia/01_AutomatizacionIndustrial/Repo_AI/Cursos/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA70C0D-1061-4141-ADEA-68F6AB0FDFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{BDA70C0D-1061-4141-ADEA-68F6AB0FDFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22EB6939-71C4-4EB7-9DF8-D313044205A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-1140" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calificaciones" sheetId="1" r:id="rId1"/>
@@ -922,19 +922,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="12.625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="15.625" customWidth="1"/>
+    <col min="5" max="13" width="12.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="12.59765625" customWidth="1"/>
+    <col min="17" max="17" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="42.75">
+    <row r="4" spans="1:17" ht="41.4">
       <c r="A4" s="11" t="s">
         <v>97</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="14">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="J9" s="14">
         <f>PLC!I9</f>
@@ -1298,7 +1298,7 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14">
         <f t="shared" si="0"/>
-        <v>7.4933333333333332</v>
+        <v>7.5733333333333333</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="14">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="Q9" s="14">
         <f t="shared" si="2"/>
-        <v>2.9973333333333336</v>
+        <v>3.0293333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="14">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="J10" s="14">
         <f>PLC!I10</f>
@@ -1345,7 +1345,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14">
         <f t="shared" si="0"/>
-        <v>7.4933333333333332</v>
+        <v>7.5733333333333333</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="14">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="2"/>
-        <v>2.9973333333333336</v>
+        <v>3.0293333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1381,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="14">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="J11" s="14">
         <f>PLC!I11</f>
@@ -1392,7 +1392,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14">
         <f t="shared" si="0"/>
-        <v>7.4933333333333332</v>
+        <v>7.5733333333333333</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="2"/>
-        <v>2.9973333333333336</v>
+        <v>3.0293333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1428,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="14">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="J12" s="14">
         <f>PLC!I12</f>
@@ -1439,7 +1439,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14">
         <f t="shared" si="0"/>
-        <v>7.4933333333333332</v>
+        <v>7.5733333333333333</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
-        <v>2.9973333333333336</v>
+        <v>3.0293333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3285,13 +3285,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" spans="1:10" ht="27.6">
       <c r="A4" s="11" t="s">
         <v>97</v>
       </c>
@@ -4878,13 +4878,13 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="15.125" customWidth="1"/>
+    <col min="7" max="8" width="15.09765625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.5">
+    <row r="4" spans="1:9" ht="27.6">
       <c r="A4" s="11" t="s">
         <v>97</v>
       </c>
@@ -6330,12 +6330,12 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -6346,7 +6346,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5">
+    <row r="4" spans="1:6" ht="27.6">
       <c r="A4" s="11" t="s">
         <v>97</v>
       </c>
@@ -7379,15 +7379,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E81954-49D0-4912-B3AC-981DFBDC2EEF}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B38" sqref="B38:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -8824,6 +8824,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B22:B25"/>
@@ -8831,11 +8836,6 @@
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
